--- a/2.Des/家政DB-20131113.xlsx
+++ b/2.Des/家政DB-20131113.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="182">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,6 +739,10 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修咨询：type_code_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,11 +1254,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1313,219 +1315,224 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
+      <c r="F11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>176</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>43</v>
       </c>
     </row>
